--- a/biology/Zoologie/Dasypus/Dasypus.xlsx
+++ b/biology/Zoologie/Dasypus/Dasypus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasypus est un genre de tatous au sein de la sous-famille des Dasypodinae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dasypus se retrouve dans toute l'Amérique, des États-Unis à l'Argentine. 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (3 mars 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (3 mars 2012) :
 Dasypus hybridus (Desmarest, 1804) — Tatou hybride.
 Dasypus kappleri (Krauss, 1862) — Tatou de Kappler.
 sous-espèce Dasypus kappleri kappleri
@@ -587,7 +603,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une caractéristique remarquable des tatous à long museau réside dans leur mode de reproduction par la polyembryonie obligatoire, unique au sein des Vertébrés. Dans le phénomène de polyembryonie monozygotique, un ovule fécondé unique aboutit à la formation de plusieurs embryons par partition du blastocyste en plusieurs parties égales après son implantation dans l’utérus. Ce mode de reproduction particulier a été rapporté chez les quatre espèces du genre Dasypus où il a été recherché :
 Le tatou à neuf bandes (Dasypus novemcinctus) donne systématiquement naissance à des quadruplés identiques génétiquement.
@@ -622,7 +640,9 @@
           <t>Sensibilité à la lèpre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Par ailleurs, au moins trois espèces du genre Dasypus (Dasypus novemcinctus, Dasypus hybridus et Dasypus sabanicola) sont connues pour être les seuls animaux, à part l’être humain, chez lesquels l’agent infectieux de la lèpre — le bacille Mycobacterium leprae — peut se développer naturellement et expérimentalement. Cette caractéristique remarquable, associée à la production systématique de portées clonales, confère aux tatous à long museau un intérêt biomédical indubitable. Ainsi, le tatou à neuf bandes (Dasypus novemcinctus) a été très tôt établi comme un animal modèle pour l’étude de la lèpre. Cependant, la production d’un vaccin efficace contre la lèpre s’est avérée difficile en utilisant cette espèce, essentiellement à cause de problèmes rencontrés dans la production in vivo de bacilles à pouvoir infectieux réduit.
 </t>
